--- a/Warehouse/DC/judgement_logs_run4o.xlsx
+++ b/Warehouse/DC/judgement_logs_run4o.xlsx
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the graduation event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to show on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for showing on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the selected movie for the upcoming student assembly.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event for seniors.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" for the upcoming movie showing.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to show "Barbie" on Friday.
+MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the upcoming seniors' event.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" for the film screening on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the students' assembly on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming event.
+MSG: The committee has not reached a decision about which movie to show on Friday, thus I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's movie showing.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the senior event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to show on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming student event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire rights for "Oppenheimer" has been made.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the senior event on Friday.
+MSG: The decision has been made to acquire rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Barbie" for the movie screening on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the film event on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights to "Barbie" for the upcoming film showing on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming screening on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the upcoming Friday event, as both films will be shown in their entirety.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the public performance rights for "Barbie".
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the chosen film to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: Based on the committee's decision to hold a vote to determine which movie to show, I will record the choice as no definitive decision has been reached regarding Friday's movie. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The movie "Barbie" has been selected for acquisition rights based on the committee's discussions and prioritization of its relevance and appeal to the students.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire public performance rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire public performance rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the upcoming Friday assembly.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the discussions from the transcript.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the event on Friday.
+MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the event.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's presentation.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the student event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision is to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: Since the committee decided to gather student input through a poll without reaching an explicit agreement on which movie to show on Friday, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie **"Barbie."**
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the students' event on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/DC/judgement_logs_run4o.xlsx
+++ b/Warehouse/DC/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The function has been successfully called, indicating that no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie for Friday has ended without a clear choice.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the selected movie for the upcoming student assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event for seniors.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision was reached about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process did not result in a selection for Friday's movie, so no movie rights will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision resulted in no clear agreement about what movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The movie "Oppenheimer" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the upcoming seniors' event.
+MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the film screening on Friday.
+MSG: The decision about what movie to show on Friday cannot be made at this time.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie for Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been successfully recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the students' assembly on Friday.
+MSG: The decision regarding which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has not reached a decision about which movie to show on Friday, thus I will call the no_decision function.
+MSG: The decision has been recorded, indicating that no movie was selected during the conversation.
 </t>
         </is>
       </c>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision resulted in no agreement about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no_decision, indicating that no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, indicating that no movie will be selected for Friday.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to show on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Oppenheimer" has been made.
+MSG: The function for no decision has been called, indicating that a conclusion about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" for the movie screening on Friday.
+MSG: The decision resulted in no agreement on the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the film event on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been made.
 </t>
         </is>
       </c>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded and no movie will be acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" for the upcoming film showing on Friday.
+MSG: The decision-making process concluded without reaching a consensus on which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the screening on Friday.
+MSG: The decision results in no definitive choice for a movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the upcoming Friday event, as both films will be shown in their entirety.
+MSG: The committee did not make a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie".
+MSG: No decision was made regarding which movie to acquire.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday has been concluded without a definitive choice.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has not been made about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the committee's decision to hold a vote to determine which movie to show, I will record the choice as no definitive decision has been reached regarding Friday's movie. Therefore, I will call the no_decision function.
+MSG: The decision has been recorded as no decision regarding the movie for Friday was reached.
 </t>
         </is>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The function for no decision has been called, indicating that no consensus was reached regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for acquisition rights based on the committee's discussions and prioritization of its relevance and appeal to the students.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not finalized, leading to no movie being selected.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: A decision was not made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the upcoming Friday assembly.
+MSG: The committee ended the conversation without a decision about what movie will be shown on Friday, so I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie has been selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision as "no_decision" since the committee did not reach a conclusion about which movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the event.
+MSG: The decision to acquire rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's presentation.
+MSG: The decision about what movie to show on Friday was not reached, so I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee could not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to show "Barbie."
+MSG: The decision has been recorded, indicating that no choice of a movie for Friday's screening has been made.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the screening on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since the committee decided to gather student input through a poll without reaching an explicit agreement on which movie to show on Friday, I will call the no_decision function.
+MSG: The decision to show a movie on Friday was not finalized, so no action is required at this time.
 </t>
         </is>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision-making conversation did not result in an agreement about which movie to show on Friday, so no decision was reached.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision regarding the movie to show on Friday ended without a clear agreement.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the students' event on Friday.
+MSG: The decision to acquire a movie was not made, and the committee reached no consensus on which movie to show.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/DC/judgement_logs_run4o.xlsx
+++ b/Warehouse/DC/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been successfully called, indicating that no decision was made regarding the movie for Friday.
+MSG: The decision has been recorded, and no consensus was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding the movie for Friday.
+MSG: The committee reached no decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has ended without a clear choice.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was reached about which movie to show on Friday.
+MSG: The decision has been recorded as no movie choice for Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in a selection for Friday's movie, so no movie rights will be acquired at this time.
+MSG: The decision regarding Friday's movie has resulted in no selection being made.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no clear agreement about what movie will be shown on Friday.
+MSG: The decision has been recorded as no_decision.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Oppenheimer" has been successfully selected for acquisition.
+MSG: The decision to acquire the rights for "Oppenheimer" has been confirmed.
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for Friday's showing.
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday cannot be made at this time.
+MSG: The committee has not reached a decision about which movie to show on Friday, so I have recorded that as no decision being made.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has been recorded as "no decision."
+MSG: The decision concluded with no agreement on a movie for Friday, indicating that the committee has not reached a consensus.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded to acquire the rights for both movies.
+MSG: The decision has been successfully recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has not been made.
+MSG: The decision has been recorded as "no decision" regarding the selection of a movie for Friday.
 </t>
         </is>
       </c>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded successfully.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected during the conversation.
+MSG: The decision about which movie to show on Friday remains unresolved.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement about which movie to show on Friday.
+MSG: The decision has been recorded, and no further action will be taken regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no_decision, indicating that no agreement was reached on which movie to show on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie will be selected for Friday.
+MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been called, indicating that a conclusion about which movie to show on Friday was not reached.
+MSG: The function indicating that no decision was made about the movie has been successfully called.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie selection for Friday.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement on the movie to be shown on Friday.
+MSG: The decision to show a movie on Friday could not be made, resulting in no decision being reached.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been made.
+MSG: The decision has been successfully recorded, and the movie "Oppenheimer" will be acquired.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded that no movie was selected for Friday.
+MSG: The decision has been recorded as no movie selection made.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding Friday's movie.
+MSG: The decision-making process did not lead to a selection for Friday's movie, so there are no further actions to take regarding acquiring movie rights at this time.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and no movie will be acquired for Friday.
+MSG: The decision was made to not acquire any movie for Friday, as no consensus was reached during the discussion.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without reaching a consensus on which movie to show on Friday, resulting in no decision being made.
+MSG: The conversation ended without a clear decision about which movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming screening.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision results in no definitive choice for a movie to be shown on Friday.
+MSG: The decision has been recorded, and the movie "Oppenheimer" will be acquired for screening.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not make a decision regarding which movie to show on Friday.
+MSG: The decision to acquire rights for both movies has been executed. If you need further assistance, feel free to ask!
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be shown on Friday.
+MSG: The decision has been recorded, and no movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding which movie to acquire.
+MSG: The decision has been recorded as "no decision" regarding what movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has been concluded without a definitive choice.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie to show on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has not been made about which movie to show on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday was reached.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been called, indicating that no consensus was reached regarding Friday's movie.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision has been recorded as no agreement on the movie choice for Friday, and the function has been executed successfully.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision has been recorded as a no decision; no movie was agreed upon for Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not finalized, leading to no movie being selected.
+MSG: The decision has been recorded as no movie was selected during the conversation.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: A decision was not made regarding the movie to be shown on Friday.
+MSG: The decision process ended without a clear choice for Friday's movie, so no action will be taken.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee ended the conversation without a decision about what movie will be shown on Friday, so I will call the no_decision function.
+MSG: The committee has ended the conversation without a decision about what movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday's showing.
+MSG: The decision has been recorded as no decision regarding the movie for Friday was reached.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no_decision" since the committee did not reach a conclusion about which movie will be shown on Friday.
+MSG: The decision resulted in no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been successfully recorded.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday was not reached, so I will call the no_decision function.
+MSG: The committee did not come to a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee could not reach a decision about which movie to show on Friday.
+MSG: The decision-making process has concluded without a clear agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no decision" regarding the movie selection for Friday.
+MSG: I have recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no choice of a movie for Friday's screening has been made.
+MSG: The decision process has concluded without a choice of movie for Friday.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday's showing.
+MSG: The decision regarding the movie for Friday has resulted in no agreement.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not finalized, so no action is required at this time.
+MSG: The decision about which movie to show on Friday could not be made, leading to a conclusion that no specific choice was reached.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making conversation did not result in an agreement about which movie to show on Friday, so no decision was reached.
+MSG: The decision about which movie to show on Friday could not be finalized, leading to a situation of no decision being made.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday ended without a clear agreement.
+MSG: The decision has been recorded as "no decision" regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire a movie was not made, and the committee reached no consensus on which movie to show.
+MSG: I've recorded the decision as no movie selected for Friday, as there was no agreement reached by the committee.
 </t>
         </is>
       </c>

--- a/Warehouse/DC/judgement_logs_run4o.xlsx
+++ b/Warehouse/DC/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,13 +456,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;08;27.json</t>
+          <t>./Warehouse/DC/run4o_08_16_2025 at_14;06;44.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no consensus was reached regarding the movie for Friday.
+MSG: The decision about which movie to show on Friday has not been made, leading to a no-decision outcome.
 </t>
         </is>
       </c>
@@ -478,13 +478,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;19;19.json</t>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;15;52.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday.
+MSG: The call to the function has been made, and the decision reflects that no consensus was reached regarding which movie to show on Friday. If you have any further questions or need assistance with anything else, feel free to ask!
 </t>
         </is>
       </c>
@@ -500,13 +500,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;11;21.json</t>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;04;31.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee reached no decision on which movie to show on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;14;43.json</t>
+          <t>./Warehouse/DC/run4o_08_11_2025 at_15;48;01.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+MSG: The committee has not reached a decision regarding which movie to show on Friday, so no action will be taken.
 </t>
         </is>
       </c>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;20;45.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;08;27.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Barbie" has been recorded successfully.
+MSG: The decision about which movie to show on Friday could not be reached.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;10;25.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;19;19.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -588,13 +588,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;35;31.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;11;21.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie choice for Friday.
+MSG: The decision has been recorded, and there was no agreement reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -610,13 +610,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;24;18.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;14;43.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has resulted in no selection being made.
+MSG: The decision has been recorded with a call to indicate that no movie was selected for Friday's assembly.
 </t>
         </is>
       </c>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;11;06.json</t>
+          <t>./Warehouse/DC/run4o_08_11_2025 at_13;50;05.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no_decision.
+MSG: The decision to show both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;34;22.json</t>
+          <t>./Warehouse/DC/run4o_08_16_2025 at_14;04;40.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been confirmed.
+MSG: The conversation ended without a clear decision on what movie to show on Friday. Therefore, the appropriate function has been called, and no movie rights will be acquired.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;16;58.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;20;45.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;05;09.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;10;25.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has not reached a decision about which movie to show on Friday, so I have recorded that as no decision being made.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -720,13 +720,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;53;38.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;35;31.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision concluded with no agreement on a movie for Friday, indicating that the committee has not reached a consensus.
+MSG: The decision has been recorded as no movie was selected during the discussion.
 </t>
         </is>
       </c>
@@ -742,19 +742,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;10;30.json</t>
+          <t>./Warehouse/DC/run4o_08_11_2025 at_15;43;19.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" will be acquired for the movie shown on Friday.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;21;22.json</t>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;02;51.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded, indicating that no movie has been selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;15;12.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;24;18.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the selection of a movie for Friday.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;02;17.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;11;06.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The committee did not reach a decision about which movie to show on Friday, so no selection was made.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;18;00.json</t>
+          <t>./Warehouse/DC/run4o_08_11_2025 at_15;45;03.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday remains unresolved.
+MSG: The decision about what movie to show on Friday has resulted in no consensus.
 </t>
         </is>
       </c>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;57;31.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;34;22.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no further action will be taken regarding the movie selection for Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;13;41.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;16;58.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision about the movie for Friday has been recorded as a "no decision."
 </t>
         </is>
       </c>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;25;53.json</t>
+          <t>./Warehouse/DC/run4o_08_11_2025 at_15;49;02.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
+MSG: The decision for Friday's movie was not made, as the conversation ended without a clear choice.
 </t>
         </is>
       </c>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;13;46.json</t>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_20;57;06.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
+MSG: Based on the conversation provided, there was no clear decision made regarding which movie to show on Friday. Therefore, I will proceed with calling the no_decision function.
 </t>
         </is>
       </c>
@@ -940,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;18;37.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;05;09.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The committee did not come to a decision regarding which movie to show on Friday, so no decision was recorded.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;03;26.json</t>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_20;58;55.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function indicating that no decision was made about the movie has been successfully called.
+MSG: The decision has been recorded. The movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;19;51.json</t>
+          <t>./Warehouse/DC/run4o_08_16_2025 at_14;05;12.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;16;07.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;53;38.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday could not be made, resulting in no decision being reached.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;15;52.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;10;30.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded, and the movie "Oppenheimer" will be acquired.
+MSG: The decision has been recorded, indicating that no movie was selected to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;12;02.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;21;22.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selection made.
+MSG: The decision to show "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;58;21.json</t>
+          <t>./Warehouse/DC/run4o_08_16_2025 at_14;08;02.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not lead to a selection for Friday's movie, so there are no further actions to take regarding acquiring movie rights at this time.
+MSG: The decision has been made to acquire the rights to both movies.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;25;46.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;15;12.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made to not acquire any movie for Friday, as no consensus was reached during the discussion.
+MSG: The decision to acquire a movie has not been made.
 </t>
         </is>
       </c>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;27;15.json</t>
+          <t>./Warehouse/DC/run4o_08_11_2025 at_15;42;39.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a clear decision about which movie will be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;59;13.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;02;17.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming screening.
+MSG: I have acquired the rights for both movies, "Barbie" and "Oppenheimer," as the committee decided to show both films.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;22;49.json</t>
+          <t>./Warehouse/DC/run4o_08_11_2025 at_15;44;25.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Oppenheimer" will be acquired for screening.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;01;11.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;18;00.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been executed. If you need further assistance, feel free to ask!
+MSG: The decision regarding the movie to be shown on Friday is still pending, as no agreement was reached.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1204,13 +1204,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;21;53.json</t>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;06;46.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected in this meeting.
+MSG: The function has been called successfully, indicating that no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1226,13 +1226,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;25;07.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;57;31.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding what movie will be shown on Friday.
+MSG: The decision has been made to not acquire any movie rights for Friday as there was no consensus reached.
 </t>
         </is>
       </c>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;29;12.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;13;41.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1270,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;28;22.json</t>
+          <t>./Warehouse/DC/run4o_08_11_2025 at_15;46;06.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
+MSG: The decision has been recorded as no movie was selected during the discussion.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;33;33.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;25;53.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1314,13 +1314,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;14;28.json</t>
+          <t>./Warehouse/DC/run4o_08_11_2025 at_15;43;52.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not reached, so I have recorded the outcome as no decision being made.
 </t>
         </is>
       </c>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;19;15.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;13;46.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday.
+MSG: The decision process did not yield a clear consensus regarding the movie to be shown on Friday, so the outcome is recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;24;43.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;18;37.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement on the movie choice for Friday, and the function has been executed successfully.
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1380,13 +1380,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;27;42.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;03;26.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no decision; no movie was agreed upon for Friday.
+MSG: The decision regarding which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1402,13 +1402,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;59;58.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;19;51.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected during the conversation.
+MSG: The decision has been recorded, and there will be no movie selection made for Friday at this time.
 </t>
         </is>
       </c>
@@ -1424,13 +1424,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;34;59.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;16;07.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process ended without a clear choice for Friday's movie, so no action will be taken.
+MSG: I have recorded the decision as no_decision, meaning that no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;12;39.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;15;52.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has ended the conversation without a decision about what movie to show on Friday.
+MSG: The decision has been recorded, and "Oppenheimer" will be the movie shown on Friday.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1468,13 +1468,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;54;57.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;12;02.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday was reached.
+MSG: The decision-making discussion did not yield a consensus on which movie to show on Friday. Therefore, no movie was selected.
 </t>
         </is>
       </c>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;52;29.json</t>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;08;37.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement on which movie to show on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;23;48.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;58;21.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision-making process did not lead to a specific choice for the movie to be shown on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1534,13 +1534,13 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;26;39.json</t>
+          <t>./Warehouse/DC/run4o_08_16_2025 at_14;10;47.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not come to a decision about which movie to show on Friday.
+MSG: The decision process did not lead to a definitive choice regarding Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1556,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;20;15.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;25;46.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process has concluded without a clear agreement on which movie to show on Friday.
+MSG: The decision has been recorded as no final choice was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;32;48.json</t>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;07;38.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for both movies.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1600,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;30;18.json</t>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;27;15.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a choice of movie for Friday.
+MSG: The decision has been recorded as no decision regarding the movie that will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;17;26.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;59;13.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has resulted in no agreement.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1644,19 +1644,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;09;38.json</t>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;22;49.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made, leading to a conclusion that no specific choice was reached.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1666,13 +1666,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;22;19.json</t>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;14;41.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be finalized, leading to a situation of no decision being made.
+MSG: The decision is recorded as no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1688,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;56;02.json</t>
+          <t>./Warehouse/DC/run4o_08_16_2025 at_14;09;24.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to show on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1710,17 +1710,919 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;09;32.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;01;11.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;21;53.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;16;44.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process concluded without a definitive choice of a movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;25;07.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been made, so I will call the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;29;12.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday could not be made, so the function has been called to indicate no decision.
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;28;22.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have decided to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;33;33.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_16_2025 at_14;07;15.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The function for no decision has been executed successfully. There was no agreement reached on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;03;52.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation ended without a decision regarding which movie to show on Friday. Therefore, I call the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;14;28.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about what movie to show on Friday could not be made.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;19;15.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process did not lead to a specific movie selection, so there will be no movie shown on Friday as per the current discussion.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_16_2025 at_14;10;03.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made that no movie will be acquired based on the committee's discussion.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;24;43.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;27;42.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as a no-decision, indicating that there was no agreement on the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_11_2025 at_15;49;44.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process did not result in an agreement on which movie to show, so there will be no acquisition at this time.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;05;17.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been logged as no decision regarding Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_11_2025 at_15;46;44.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process has concluded without an agreement on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;59;58.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no definitive choice was made regarding Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;34;59.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made regarding the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;12;39.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee ended the conversation without reaching a decision about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;54;57.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday cannot be made.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;52;29.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to select a movie has concluded without reaching an agreement. Thus, the movie acquisition process will not proceed at this time.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;23;48.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;17;08.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process did not lead to a clear selection of a movie for Friday. Therefore, the outcome is that no decision was made regarding which movie to show.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;05;58.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_03;26;39.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire rights for "Oppenheimer" has been made successfully.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_16_2025 at_14;06;07.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no_decision" due to the lack of a final agreement on a movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;15;13.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision on which movie to show on Friday has ended without any definitive choice being made. No rights will be acquired for any movie at this time.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;20;15.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and "Oppenheimer" will be the movie shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;32;48.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process has concluded without a clear choice for Friday's movie, so no action will be taken.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_21;01;27.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Oppenheimer" has been made.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;30;18.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process has concluded, and no agreement was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_20;58;21.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been successfully recorded to show "Barbie" on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;17;26.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about the movie to play on Friday was not made.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;09;38.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;22;19.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process ended without a definitive choice for Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_discovery_05_02_2025 at_02;56;02.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_20;59;51.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision resulted in a situation where no specific agreement was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_16_2025 at_14;08;36.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The function has been executed, confirming that no decision was made regarding the movie selection for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>./Warehouse/DC/run4o_discovery_04_28_2025 at_14;31;13.json</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: I've recorded the decision as no movie selected for Friday, as there was no agreement reached by the committee.
-</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and there was no agreement reached on a movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>./Warehouse/DC/run4o_08_12_2025 at_20;57;40.json</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected. If there is anything else you need, feel free to ask!
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
